--- a/chats.xlsx
+++ b/chats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PathonProjects\ParsingMembers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9702FA1B-7062-4409-AA89-EC44DC914029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0246D035-727B-4AAE-9B33-3A4A27E3997D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>https://t.me/telegram_group_name</t>
+    <t>https://t.me/group</t>
   </si>
 </sst>
 </file>
@@ -358,9 +358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -372,18 +370,15 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{73829AFB-ED83-4021-BB3A-1E72F8E4D034}"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{FE032981-FC3D-492C-878C-0691EAB19F41}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
